--- a/Fab Print Flow.xlsx
+++ b/Fab Print Flow.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Team Solutions\Desktop\ROLO'S NOTES\gitfolder\TSD_SOPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FA5F1B-394D-49E0-8FB7-968F1DD48A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50691B88-D8DE-4310-858D-982012CE8A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{324DEDB6-945A-4831-B0BB-8E26D2719763}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{324DEDB6-945A-4831-B0BB-8E26D2719763}"/>
   </bookViews>
   <sheets>
-    <sheet name="VSM current" sheetId="1" r:id="rId1"/>
+    <sheet name="VSM current" sheetId="9" r:id="rId1"/>
     <sheet name="Flow overall current" sheetId="2" r:id="rId2"/>
     <sheet name="Trays &amp; Rims" sheetId="3" r:id="rId3"/>
     <sheet name="Frames" sheetId="5" r:id="rId4"/>
@@ -35,6 +35,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,6 +108,421 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Alternate Process 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3C732A-379D-4585-BF3A-A89ACE5E0EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="1876426"/>
+          <a:ext cx="4133850" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Post processing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Alternate Process 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1090C256-4B2E-4AED-9400-1F6D4B2682A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="4543426"/>
+          <a:ext cx="4133850" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Post processing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Alternate Process 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AB8E6A-47B3-444E-93C2-BA32BA229DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="7210426"/>
+          <a:ext cx="4133850" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Post processing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Alternate Process 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3A5CC4-8266-4471-B0D5-721B20B3DBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="10067926"/>
+          <a:ext cx="4133850" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Post processing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -113,10 +536,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flowchart: Process 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADC14C9-84C8-4951-96CD-F812C83AC51F}"/>
+        <xdr:cNvPr id="6" name="Flowchart: Process 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C828BD-0E73-49F2-BE42-D24B2FAC86B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -179,7 +602,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Nest model</a:t>
+            <a:t>Nest Carbon model</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -203,7 +626,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CT =XXmin</a:t>
+            <a:t>CT =7-20min </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -227,7 +650,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CO = XXmin</a:t>
+            <a:t>CO = 0.5min</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -262,7 +685,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> = XX%</a:t>
+            <a:t> = 100%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -302,10 +725,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Flowchart: Process 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006F6C44-9838-4FF6-8A8E-E402EE505D89}"/>
+        <xdr:cNvPr id="7" name="Flowchart: Process 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853C4965-2A7F-4CB2-9A80-656E102FD85A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -319,7 +742,9 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -369,10 +794,11 @@
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
               <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Print model</a:t>
+            <a:t>Print Carbon model</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -394,21 +820,16 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CT =XXmin</a:t>
+            <a:t>CT =45-90min </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -430,21 +851,16 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CO = XXmin</a:t>
+            <a:t>CO = 5-30min</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -466,25 +882,20 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>UP = XX%</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:t>UP = 100%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
             <a:lnSpc>
               <a:spcPct val="107000"/>
             </a:lnSpc>
@@ -495,8 +906,12 @@
               <a:spcPts val="800"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0D0D0D"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -520,10 +935,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flowchart: Process 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A669EAE-B1AB-4B18-8C9B-A75AAC612E91}"/>
+        <xdr:cNvPr id="8" name="Flowchart: Process 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7769DEC6-E8E5-4DAA-A005-D3AC723FD8E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,7 +1016,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> Carbon </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
@@ -648,7 +1063,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CT =XXmin</a:t>
+            <a:t>CT =40min</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -684,7 +1099,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CO = XXmin</a:t>
+            <a:t>CO = 5min</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -720,7 +1135,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>UP = XX%</a:t>
+            <a:t>UP = 100%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -747,23 +1162,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Flowchart: Process 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287D8AE1-D956-4C24-AAFB-D42B00BD18F2}"/>
+        <xdr:cNvPr id="9" name="Flowchart: Process 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2D9754-BEBC-41DC-9A41-AD936C86319D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,8 +1186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8543925" y="4962525"/>
-          <a:ext cx="1343025" cy="742950"/>
+          <a:off x="8524875" y="2085975"/>
+          <a:ext cx="1343025" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -816,7 +1231,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -824,371 +1239,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>text</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Flowchart: Process 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDA60D6-775F-431A-9980-D5CDA2119353}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6096000" y="4962525"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>text</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Flowchart: Process 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AF4C33-99C3-4D15-90D2-20A5A43068F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657600" y="4962525"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>text</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Flowchart: Process 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8A7C88-CD1D-4882-BAD2-7B2118DB4007}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1209675" y="4953000"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>text</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Flowchart: Process 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6356FA79-5820-42CB-8013-44A1D77A4484}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8524875" y="2085975"/>
-          <a:ext cx="1343025" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Cure model</a:t>
+            <a:t>Cure Carbon model</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1224,7 +1275,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CT =XXmin</a:t>
+            <a:t>CT =3.3min</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1260,7 +1311,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CO = XXmin</a:t>
+            <a:t>CO = 0.5min</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1296,7 +1347,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>UP = XX%</a:t>
+            <a:t>UP = 100%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1336,10 +1387,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Arrow: Right 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3ABB12-42FC-4320-AD00-F68514F95E95}"/>
+        <xdr:cNvPr id="10" name="Arrow: Right 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB750DDA-39D0-45DB-9689-8FE314739D53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,10 +1447,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Arrow: Right 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACC775C-832E-4D8D-91EA-1CA5A1394E0B}"/>
+        <xdr:cNvPr id="11" name="Arrow: Right 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B589FDE-D775-4F47-80F8-1582A1F065C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,23 +1494,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Arrow: Right 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B21116-0668-48A9-8376-7F1CA6474679}"/>
+        <xdr:cNvPr id="12" name="Arrow: Right 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B2DABC-2D32-4843-9013-1CEA2E7B8A50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1518,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5381625" y="5238750"/>
+          <a:off x="7848600" y="2876550"/>
           <a:ext cx="276225" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1503,23 +1554,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Arrow: Right 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00A1702-FB3A-4C48-B434-D03399F45B5F}"/>
+        <xdr:cNvPr id="13" name="Flowchart: Process 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E1A5EE-167E-406B-A4ED-1690AACE827F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,193 +1578,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2943225" y="5238750"/>
-          <a:ext cx="276225" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Arrow: Right 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F990E6-5C74-4546-BA62-0449F7F00E83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7848600" y="3152775"/>
-          <a:ext cx="276225" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Arrow: Right 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F62E5E-F72E-4DC0-9941-6EA19E24996C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7867650" y="5238750"/>
-          <a:ext cx="276225" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Flowchart: Process 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C096B7-5CBA-4EA7-BDA7-BAC7562C9057}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="7048500"/>
-          <a:ext cx="1343025" cy="742950"/>
+          <a:off x="11582400" y="380999"/>
+          <a:ext cx="4133850" cy="2733675"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1751,85 +1624,15 @@
               <a:spcPts val="800"/>
             </a:spcAft>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Nest Frame</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0D0D0D"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Flowchart: Process 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62860400-FAC2-4B8C-BB47-65D40B5C526F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657600" y="7048500"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" algn="ctr">
             <a:lnSpc>
@@ -1843,7 +1646,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1000" i="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -1851,76 +1654,9 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Print Frame</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Flowchart: Process 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556B1A8E-6BE1-4950-B058-0A603604BE39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6105525" y="7048500"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
+            <a:t>Cycle Time = How long each cycle takes in XXmin</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" algn="ctr">
             <a:lnSpc>
@@ -1934,7 +1670,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1000" i="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -1942,10 +1678,10 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Clean</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:t>Change Over Time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -1956,7 +1692,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1000" i="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -1964,76 +1700,31 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Frame</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Flowchart: Process 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29279BE-C561-47EA-ABD8-18732B52F467}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8524875" y="7058025"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
+            <a:t>or Warm up Time = How long warm up or changing the machine over to the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> product you want to make in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>XXmin</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" algn="ctr">
             <a:lnSpc>
@@ -2047,7 +1738,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1000" i="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -2055,256 +1746,20 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Cure Frame</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Arrow: Right 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7D374B-6823-4CA0-BE16-A7E6A5207CAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2943225" y="7324725"/>
-          <a:ext cx="276225" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Arrow: Right 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DED407-47CB-4146-B70C-3A8851EFC894}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="7334250"/>
-          <a:ext cx="276225" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Arrow: Right 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802A4CDF-0FE3-4D61-A5DF-F391092C697B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7848600" y="7343775"/>
-          <a:ext cx="276225" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Flowchart: Process 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AAA32A-305D-417A-952E-94AE710EE0AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="9144000"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
+            <a:t>UP time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> =  This is the ratio of up time to down time on that particular machine in XX%</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" algn="ctr">
             <a:lnSpc>
@@ -2317,17 +1772,6 @@
               <a:spcPts val="800"/>
             </a:spcAft>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Nest Wax Rim</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -2340,23 +1784,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Flowchart: Process 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8948EB-3D71-4FBB-9AF0-FC5026E7DF06}"/>
+        <xdr:cNvPr id="14" name="Flowchart: Process 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF421FE1-D192-4231-8DA6-EBB2AA00C999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,13 +1808,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="9144000"/>
-          <a:ext cx="1343025" cy="742950"/>
+          <a:off x="1219200" y="4781550"/>
+          <a:ext cx="1343025" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2409,7 +1855,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -2417,76 +1863,9 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Print Wax Rim</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Flowchart: Process 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1863B0D3-E716-4C25-99D8-E2CE6D53D6D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6105525" y="9144000"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
+            <a:t>Nest Obet model</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" algn="ctr">
             <a:lnSpc>
@@ -2500,7 +1879,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1000" i="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -2508,98 +1887,9 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Clean</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Wax Rim</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Flowchart: Process 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26880263-D5B1-42A7-9215-0F823A21C840}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8524875" y="9153525"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
+            <a:t>CT =5-10min</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" algn="ctr">
             <a:lnSpc>
@@ -2613,7 +1903,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1000" i="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -2621,539 +1911,9 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Cure Wax</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> Rim</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Arrow: Right 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB98FA2-A0B0-4FAE-98F7-0B39888F8BD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2943225" y="9420225"/>
-          <a:ext cx="276225" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Arrow: Right 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD38BA53-3CFF-4BB5-9350-9327873B68FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="9429750"/>
-          <a:ext cx="276225" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Arrow: Right 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A7E136-979A-487B-A37D-AC29C21DC551}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7848600" y="9439275"/>
-          <a:ext cx="276225" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Flowchart: Alternate Process 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0248CB11-BDB0-40E0-81F3-E02451D26BF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5943600" y="1876426"/>
-          <a:ext cx="4133850" cy="2000250"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Post processing</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Flowchart: Alternate Process 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DB6EB5-2DB6-4ECF-A7D4-181B02C0C03B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5924550" y="4572000"/>
-          <a:ext cx="4133850" cy="1495425"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Post processing</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Flowchart: Alternate Process 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0A1F37-23E3-48B0-8B76-AB0F93F5B2D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5905500" y="6657975"/>
-          <a:ext cx="4133850" cy="1495425"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Post processing</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Flowchart: Alternate Process 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5F0430-EC6E-436B-A47E-3AD692E8631A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5915025" y="8667750"/>
-          <a:ext cx="4133850" cy="1495425"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Post processing</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Flowchart: Process 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8A6B12-E092-4266-8E55-0ADED913D157}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="11715750"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
+            <a:t>CO = 0.5min</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" algn="ctr">
             <a:lnSpc>
@@ -3167,7 +1927,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1000" i="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
@@ -3175,76 +1935,20 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Nest Tray</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Flowchart: Process 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281B1105-13AA-4522-A398-FF1DCFE3A7E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657600" y="11715750"/>
-          <a:ext cx="1343025" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
+            <a:t>UP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> = 98%</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" algn="ctr">
             <a:lnSpc>
@@ -3257,17 +1961,6 @@
               <a:spcPts val="800"/>
             </a:spcAft>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Print Tray</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -3280,23 +1973,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Flowchart: Process 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27070803-6378-46CA-9C31-74FA02703F0D}"/>
+        <xdr:cNvPr id="15" name="Flowchart: Process 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E80304-75DA-4CA4-8F87-E738902BAC25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,13 +1997,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6105525" y="11715750"/>
-          <a:ext cx="1343025" cy="742950"/>
+          <a:off x="3657600" y="4733925"/>
+          <a:ext cx="1362075" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3336,6 +2031,374 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Print Obet model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =90-600min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 45-150min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP = 97%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0D0D0D"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Flowchart: Process 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85952230-7796-49AB-A115-CCC387A5E1CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="4752975"/>
+          <a:ext cx="1343025" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Clean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Objet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =15-60min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 0min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP = 99%</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" algn="ctr">
             <a:lnSpc>
@@ -3348,28 +2411,6 @@
               <a:spcPts val="800"/>
             </a:spcAft>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Clean</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> Tray</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -3384,21 +2425,21 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Flowchart: Process 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54DEE77-622A-499F-91E2-FD1BA979CB59}"/>
+        <xdr:cNvPr id="17" name="Flowchart: Process 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49895424-87F5-45DA-B25B-27A432BD72D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,8 +2447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="11725275"/>
-          <a:ext cx="1343025" cy="742950"/>
+          <a:off x="8524875" y="4752975"/>
+          <a:ext cx="1343025" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3451,16 +2492,55 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1000" b="1" i="1">
               <a:solidFill>
                 <a:srgbClr val="0D0D0D"/>
               </a:solidFill>
               <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Cure Tray</a:t>
-          </a:r>
+            <a:t>N/A</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>to Jetted Material Printers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -3475,21 +2555,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Arrow: Right 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14B1FD0-D23D-4D5C-9E0D-4340A3A3BF1D}"/>
+        <xdr:cNvPr id="18" name="Arrow: Right 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE27600-5D93-4FA1-89F4-F854C56A9089}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,7 +2577,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2943225" y="11991975"/>
+          <a:off x="2943225" y="5800725"/>
           <a:ext cx="276225" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3535,21 +2615,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Arrow: Right 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C02CDB-F780-446A-ADD5-CC63C44AD669}"/>
+        <xdr:cNvPr id="19" name="Arrow: Right 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECCE776-ADB6-4CCB-8082-06609B5EB0A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +2637,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5400675" y="12001500"/>
+          <a:off x="5400675" y="5810250"/>
           <a:ext cx="276225" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3595,21 +2675,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Arrow: Right 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B55A75-FDDF-403B-99F6-124B116E5C14}"/>
+        <xdr:cNvPr id="20" name="Arrow: Right 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E833A160-4ECC-4C88-A1CB-591A1D5F7E5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3617,7 +2697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="12011025"/>
+          <a:off x="7848600" y="5819775"/>
           <a:ext cx="276225" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3653,23 +2733,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Flowchart: Alternate Process 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D93DBE-3A38-42BB-9085-3AABE851DA3D}"/>
+        <xdr:cNvPr id="21" name="Flowchart: Process 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494ACF2F-D5F2-499B-9002-6F9999EFD81B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,13 +2757,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5915025" y="11239500"/>
-          <a:ext cx="4133850" cy="1495425"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+          <a:off x="1219200" y="7448550"/>
+          <a:ext cx="1343025" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3702,18 +2784,1969 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nest Formlabs Tray / Rim</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =5-10min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 0.5min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> = 100%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Flowchart: Process 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDD274B-0774-47B4-A664-8197568FFDD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="7400925"/>
+          <a:ext cx="1362075" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Print Formlabs Tray / Rim</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =45-90min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 5-20min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP = 95%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0D0D0D"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Flowchart: Process 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA37DFB-C672-4F90-AB15-F5E379C8FA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="7419975"/>
+          <a:ext cx="1343025" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Clean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Formlabs Tray / Rim</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0D0D0D"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =40-45min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 5min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP = 100%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Process 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75B8BAB-2937-482A-B05C-0AC6315C7AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524875" y="7419975"/>
+          <a:ext cx="1343025" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Cure Formlabs Tray / Rim</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =30-40min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 0min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP = 100%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Arrow: Right 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C13E79-DB4B-4081-B251-00B9BF89391E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="8467725"/>
+          <a:ext cx="276225" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Arrow: Right 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFF795C-BF19-4E82-971C-8256D97C813B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="8477250"/>
+          <a:ext cx="276225" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Arrow: Right 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93ABAF73-5ECC-4808-B501-3FEF6E7CBCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="8486775"/>
+          <a:ext cx="276225" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Flowchart: Process 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CFDB9F-D536-42CF-A3F0-7607351354DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="10306050"/>
+          <a:ext cx="1343025" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Post processing</a:t>
-          </a:r>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nest Envisiontec Frame</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =5-10min/plate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 0.5min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> = 95%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Flowchart: Process 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3011945-600C-4970-8950-1A24C8E90E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="10258425"/>
+          <a:ext cx="1362075" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Print Envisiontec Frame</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =60-90min/plate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 60-120min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP = 95%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0D0D0D"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Flowchart: Process 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE2540D-3219-4D0E-A515-D1C1D99371E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="10277475"/>
+          <a:ext cx="1343025" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Clean Envisiontec Frame</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =10-15min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 5min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP = 100%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0D0D0D"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Flowchart: Process 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59623CD8-796B-4D63-A2AF-08D0E27DF6FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524875" y="10277475"/>
+          <a:ext cx="1343025" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Cure Envisiontec Frame</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CT =5-10min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CO = 0min</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" i="1" noProof="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UP = 100%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0D0D0D"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Arrow: Right 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDC27E8-2B21-4464-96D9-CC18BA260BC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="11325225"/>
+          <a:ext cx="276225" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Arrow: Right 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D42F938-4CF2-49D1-99D8-8ED287568342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="11334750"/>
+          <a:ext cx="276225" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Arrow: Right 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F12150-38F3-478E-AF6A-4A86C078C6DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="11344275"/>
+          <a:ext cx="276225" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14176,6 +15209,91 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>324969</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="Rectangle: Rounded Corners 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26ECA68-7938-4D8D-B4F8-636CB182BDFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210734" y="1143000"/>
+          <a:ext cx="3585882" cy="1479176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7C5D44">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alternate path until end</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> of resin</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>208431</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -17175,91 +18293,6 @@
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>369793</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>324969</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="Rectangle: Rounded Corners 179">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26ECA68-7938-4D8D-B4F8-636CB182BDFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5210734" y="1143000"/>
-          <a:ext cx="3585882" cy="1479176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="7C5D44">
-            <a:alpha val="20000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Alternate path until end</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> of resin</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -27712,17 +28745,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F284CE-C873-4837-941D-E7BEF440C581}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CC254C-4952-4999-AAB7-578029E5E0DF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="51" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27733,7 +28776,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -27750,7 +28793,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27765,7 +28808,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P41" sqref="P40:P41"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27780,7 +28823,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fab Print Flow.xlsx
+++ b/Fab Print Flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Team Solutions\Desktop\ROLO'S NOTES\gitfolder\TSD_SOPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50691B88-D8DE-4310-858D-982012CE8A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4632B7E1-C5F9-47A1-A361-A54744E21E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{324DEDB6-945A-4831-B0BB-8E26D2719763}"/>
   </bookViews>
@@ -1275,7 +1275,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CT =3.3min</a:t>
+            <a:t>CT =3-30min</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -28751,8 +28751,8 @@
   </sheetPr>
   <dimension ref="B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
